--- a/테이블 제2정규화.xlsx
+++ b/테이블 제2정규화.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{07082FA5-66EF-4D85-9240-371A3C12587A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E966FB-83E4-46A1-85FD-3AEF86744BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9DC31584-0712-4F15-B5E2-BE3085636CC3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{9DC31584-0712-4F15-B5E2-BE3085636CC3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="61">
   <si>
     <t>id(PK)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -204,6 +205,78 @@
   </si>
   <si>
     <t>주문 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>customer_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문번호-&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>customer_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>customer_addr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이순신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김유신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김춘추</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장보고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대전 동구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대전 중구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대전 유성구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>떡볶이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제육</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -228,7 +301,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -250,6 +323,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -283,7 +362,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -301,6 +380,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -618,8 +712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79FB4D7F-42F8-4DC1-80A8-1388EA7DAEC5}">
   <dimension ref="A2:R27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1316,4 +1410,394 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2F15F39-43A1-46B7-B1C4-1D205812085F}">
+  <dimension ref="A2:J24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.25" customWidth="1"/>
+    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B4" s="6">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8">
+        <v>100</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="9">
+        <v>10</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="6">
+        <v>2</v>
+      </c>
+      <c r="I4" s="7">
+        <v>46037</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B5" s="6">
+        <v>2</v>
+      </c>
+      <c r="C5" s="8">
+        <v>200</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="9">
+        <v>20</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="6">
+        <v>2</v>
+      </c>
+      <c r="I5" s="7">
+        <v>46038</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="6">
+        <v>3</v>
+      </c>
+      <c r="C6" s="8">
+        <v>300</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="9">
+        <v>10</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="6">
+        <v>1</v>
+      </c>
+      <c r="I6" s="7">
+        <v>46040</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B7" s="6">
+        <v>4</v>
+      </c>
+      <c r="C7" s="8">
+        <v>300</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="9">
+        <v>30</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" s="6">
+        <v>3</v>
+      </c>
+      <c r="I7" s="7">
+        <v>46040</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="6">
+        <v>5</v>
+      </c>
+      <c r="C8" s="8">
+        <v>500</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="9">
+        <v>80</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" s="6">
+        <v>2</v>
+      </c>
+      <c r="I8" s="7">
+        <v>42393</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B14" s="6">
+        <v>1</v>
+      </c>
+      <c r="C14" s="10">
+        <v>100</v>
+      </c>
+      <c r="D14" s="10">
+        <v>10</v>
+      </c>
+      <c r="E14" s="6">
+        <v>2</v>
+      </c>
+      <c r="F14" s="7">
+        <v>46037</v>
+      </c>
+      <c r="H14" s="8">
+        <v>100</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B15" s="6">
+        <v>2</v>
+      </c>
+      <c r="C15" s="10">
+        <v>200</v>
+      </c>
+      <c r="D15" s="10">
+        <v>20</v>
+      </c>
+      <c r="E15" s="6">
+        <v>2</v>
+      </c>
+      <c r="F15" s="7">
+        <v>46038</v>
+      </c>
+      <c r="H15" s="8">
+        <v>200</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B16" s="6">
+        <v>3</v>
+      </c>
+      <c r="C16" s="10">
+        <v>300</v>
+      </c>
+      <c r="D16" s="10">
+        <v>10</v>
+      </c>
+      <c r="E16" s="6">
+        <v>1</v>
+      </c>
+      <c r="F16" s="7">
+        <v>46040</v>
+      </c>
+      <c r="H16" s="8">
+        <v>300</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B17" s="6">
+        <v>4</v>
+      </c>
+      <c r="C17" s="10">
+        <v>300</v>
+      </c>
+      <c r="D17" s="10">
+        <v>30</v>
+      </c>
+      <c r="E17" s="6">
+        <v>3</v>
+      </c>
+      <c r="F17" s="7">
+        <v>46040</v>
+      </c>
+      <c r="H17" s="8">
+        <v>500</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B18" s="6">
+        <v>5</v>
+      </c>
+      <c r="C18" s="10">
+        <v>500</v>
+      </c>
+      <c r="D18" s="10">
+        <v>80</v>
+      </c>
+      <c r="E18" s="6">
+        <v>2</v>
+      </c>
+      <c r="F18" s="7">
+        <v>42393</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H20" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H21" s="9">
+        <v>10</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H22" s="9">
+        <v>20</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H23" s="9">
+        <v>30</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H24" s="9">
+        <v>80</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/테이블 제2정규화.xlsx
+++ b/테이블 제2정규화.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29725"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E966FB-83E4-46A1-85FD-3AEF86744BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E284FAAB-F8CC-4297-9B30-924F50C8CDC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{9DC31584-0712-4F15-B5E2-BE3085636CC3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{9DC31584-0712-4F15-B5E2-BE3085636CC3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="97">
   <si>
     <t>id(PK)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -277,6 +278,150 @@
   </si>
   <si>
     <t>상품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>visit_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>visit_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>patient_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>patient_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doctor_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doctor_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dept_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>meds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qtys</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김철수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이영희</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박의사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최의사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정형외과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타이레놀,오메가3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제 1 정규화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타이레놀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오메가3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제 2 정규화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dept_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> N              N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1                1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N               N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prescription_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>meds_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">N         </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1         N</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -333,7 +478,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -356,13 +501,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -395,6 +549,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1416,7 +1591,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2F15F39-43A1-46B7-B1C4-1D205812085F}">
   <dimension ref="A2:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
@@ -1800,4 +1975,433 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58DEC568-5094-4AAC-BD50-2FCBDF9A80FA}">
+  <dimension ref="B1:O21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="H1" s="11"/>
+    </row>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13">
+        <v>46052</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+      <c r="C4" s="13">
+        <v>46052</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J4" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="13">
+        <v>46052</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J8" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B9" s="2">
+        <v>2</v>
+      </c>
+      <c r="C9" s="13">
+        <v>46052</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J9" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B10" s="2">
+        <v>2</v>
+      </c>
+      <c r="C10" s="13">
+        <v>46052</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J10" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="D13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="13">
+        <v>46052</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="D15" s="2">
+        <v>2</v>
+      </c>
+      <c r="E15" s="13">
+        <v>46052</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K15" t="s">
+        <v>96</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="D16" s="2">
+        <v>2</v>
+      </c>
+      <c r="E16" s="13">
+        <v>46052</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="K16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="D17" s="11"/>
+      <c r="E17" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C18" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K18" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="L18" s="17"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C19" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="H19" s="2"/>
+      <c r="J19" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C20" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" t="s">
+        <v>89</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H20" s="2"/>
+      <c r="J20" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="J21" s="2">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/테이블 제2정규화.xlsx
+++ b/테이블 제2정규화.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29725"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\DB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YJK\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E284FAAB-F8CC-4297-9B30-924F50C8CDC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{161FF6D9-CCD0-44D7-84ED-5714BDB87604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{9DC31584-0712-4F15-B5E2-BE3085636CC3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="3" xr2:uid="{9DC31584-0712-4F15-B5E2-BE3085636CC3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="148">
   <si>
     <t>id(PK)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -422,6 +423,313 @@
   </si>
   <si>
     <t>1         N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아래 이미지의 테이블 을 참고하여  정규화 및 관계 설정 하세요</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3C4043"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>한번으</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3C4043"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3C4043"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅣ예매에는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3C4043"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3C4043"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>좌석을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3C4043"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3C4043"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개이상</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3C4043"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3C4043"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>선택할수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3C4043"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3C4043"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3C4043"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객은 특정 상영 일정에 대해 예매를 할 수 있다.</t>
+  </si>
+  <si>
+    <t>예매 관리</t>
+  </si>
+  <si>
+    <t>영화관은 영화의 상영 일정을 관리한다.</t>
+  </si>
+  <si>
+    <t>상영일정 관리</t>
+  </si>
+  <si>
+    <t>영화관은 고객 정보를관리 한다.</t>
+  </si>
+  <si>
+    <t>prices</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prices_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Price_by_seat_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>movie_screening_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reserve_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영화관은 상영관정보를 관리한다</t>
+  </si>
+  <si>
+    <t>가격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예약정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reserve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영화관은 영화 정보를 관리한다.  </t>
+  </si>
+  <si>
+    <t>영화관 예매 시스템 요구사항</t>
+  </si>
+  <si>
+    <t>seats</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>show_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>screen_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>movie_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좌석별 가격정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Price_by_seat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영화일정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>movie_screening</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인셉션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인터스텔라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>screen_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>movie_title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상영관정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영화정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12,000 , 12,000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A1 , A2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방문날짜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>환자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>처방전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수량</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -429,7 +737,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -445,8 +753,28 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3C4043"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3C4043"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3C4043"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -474,6 +802,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -516,7 +850,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -550,25 +884,34 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -589,9 +932,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -629,7 +972,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -735,7 +1078,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -877,7 +1220,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1979,10 +2322,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58DEC568-5094-4AAC-BD50-2FCBDF9A80FA}">
-  <dimension ref="B1:O21"/>
+  <dimension ref="B2:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1999,9 +2342,6 @@
     <col min="12" max="12" width="14.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="H1" s="11"/>
-    </row>
     <row r="2" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>61</v>
@@ -2009,19 +2349,19 @@
       <c r="C2" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="2" t="s">
         <v>67</v>
       </c>
       <c r="I2" s="2" t="s">
@@ -2035,22 +2375,22 @@
       <c r="B3" s="2">
         <v>1</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="11">
         <v>46052</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="2" t="s">
         <v>78</v>
       </c>
       <c r="I3" s="2" t="s">
@@ -2064,22 +2404,22 @@
       <c r="B4" s="2">
         <v>2</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="11">
         <v>46052</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="2" t="s">
         <v>79</v>
       </c>
       <c r="I4" s="2" t="s">
@@ -2088,23 +2428,11 @@
       <c r="J4" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>84</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
@@ -2113,19 +2441,19 @@
       <c r="C7" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="2" t="s">
         <v>67</v>
       </c>
       <c r="I7" s="2" t="s">
@@ -2139,22 +2467,22 @@
       <c r="B8" s="2">
         <v>1</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="11">
         <v>46052</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="2" t="s">
         <v>78</v>
       </c>
       <c r="I8" s="2" t="s">
@@ -2168,22 +2496,22 @@
       <c r="B9" s="2">
         <v>2</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="11">
         <v>46052</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="2" t="s">
         <v>78</v>
       </c>
       <c r="I9" s="2" t="s">
@@ -2197,22 +2525,22 @@
       <c r="B10" s="2">
         <v>2</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="11">
         <v>46052</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="H10" s="2" t="s">
         <v>79</v>
       </c>
       <c r="I10" s="2" t="s">
@@ -2221,21 +2549,11 @@
       <c r="J10" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>87</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.3">
       <c r="D13" s="2" t="s">
@@ -2244,10 +2562,10 @@
       <c r="E13" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="G13" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="H13" s="12" t="s">
+      <c r="H13" s="2" t="s">
         <v>67</v>
       </c>
       <c r="J13" s="2" t="s">
@@ -2258,26 +2576,38 @@
       <c r="D14" s="2">
         <v>1</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="11">
         <v>46052</v>
       </c>
       <c r="G14" s="2"/>
-      <c r="H14" s="12" t="s">
+      <c r="H14" s="2" t="s">
         <v>78</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>85</v>
       </c>
+      <c r="L14" t="s">
+        <v>145</v>
+      </c>
+      <c r="M14" t="s">
+        <v>142</v>
+      </c>
+      <c r="N14" t="s">
+        <v>146</v>
+      </c>
+      <c r="O14" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.3">
       <c r="D15" s="2">
         <v>2</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="11">
         <v>46052</v>
       </c>
       <c r="G15" s="2"/>
-      <c r="H15" s="12" t="s">
+      <c r="H15" s="2" t="s">
         <v>79</v>
       </c>
       <c r="J15" s="2" t="s">
@@ -2303,10 +2633,10 @@
       <c r="D16" s="2">
         <v>2</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="11">
         <v>46052</v>
       </c>
-      <c r="H16" s="14" t="s">
+      <c r="H16" s="5" t="s">
         <v>83</v>
       </c>
       <c r="J16" s="2" t="s">
@@ -2316,55 +2646,51 @@
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="D17" s="11"/>
-      <c r="E17" s="11" t="s">
+    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
         <v>92</v>
       </c>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
       <c r="H17" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C18" s="12" t="s">
+    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C18" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E18" s="15" t="s">
+      <c r="E18" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="F18" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G18" s="12" t="s">
+      <c r="G18" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H18" s="12" t="s">
+      <c r="H18" s="2" t="s">
         <v>88</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="K18" s="16" t="s">
+      <c r="K18" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="L18" s="17"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C19" s="12" t="s">
+    </row>
+    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C19" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="F19" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G19" s="12" t="s">
+      <c r="G19" s="2" t="s">
         <v>76</v>
       </c>
       <c r="H19" s="2"/>
@@ -2372,20 +2698,20 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C20" s="12" t="s">
+    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C20" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="2" t="s">
         <v>73</v>
       </c>
       <c r="E20" t="s">
         <v>89</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="F20" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G20" s="12" t="s">
+      <c r="G20" s="2" t="s">
         <v>77</v>
       </c>
       <c r="H20" s="2"/>
@@ -2393,11 +2719,493 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
+    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
       <c r="J21" s="2">
         <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="D24" t="s">
+        <v>141</v>
+      </c>
+      <c r="E24" t="s">
+        <v>142</v>
+      </c>
+      <c r="F24" t="s">
+        <v>143</v>
+      </c>
+      <c r="G24" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="D25" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76790E0E-4836-47E4-8DCF-B4805B9980D9}">
+  <dimension ref="C4:M40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="9.125" customWidth="1"/>
+    <col min="5" max="5" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C4" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G5" s="20">
+        <v>46082.583333333336</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C6" s="2">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G6" s="20">
+        <v>46082.666666666664</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="K6" s="19">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="9" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C10" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G11" s="20">
+        <v>46082.583333333336</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="K11" s="19">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="12" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G12" s="20">
+        <v>46082.583333333336</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="K12" s="19">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="13" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C13" s="2">
+        <v>2</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G13" s="20">
+        <v>46082.666666666664</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="I13" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="K13" s="19">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="16" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" t="s">
+        <v>135</v>
+      </c>
+      <c r="I16" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="L16" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="F17" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="I17" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="J17" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="F18" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="I18" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="J18" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="L18" s="2">
+        <v>1</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="F19" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="I19" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="J19" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="L19" s="2">
+        <v>2</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="F20" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="I20" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="J20" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="L20" s="2">
+        <v>3</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="G21" s="17"/>
+      <c r="I21" s="18"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C22" s="5"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="E24" t="s">
+        <v>122</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="J24" t="s">
+        <v>120</v>
+      </c>
+      <c r="K24" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="E25" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C28" s="14" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C29" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="F29" t="s">
+        <v>112</v>
+      </c>
+      <c r="G29" t="s">
+        <v>111</v>
+      </c>
+      <c r="L29" t="s">
+        <v>104</v>
+      </c>
+      <c r="M29" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C30" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G30" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="L30" t="s">
+        <v>105</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C31" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C33" s="14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C34" s="14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C36" s="14" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C37" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C38" s="15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C39" s="14"/>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C40" s="14" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/테이블 제2정규화.xlsx
+++ b/테이블 제2정규화.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29725"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YJK\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{161FF6D9-CCD0-44D7-84ED-5714BDB87604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0027F66-295D-4FF6-B19B-F054373A44C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="3" xr2:uid="{9DC31584-0712-4F15-B5E2-BE3085636CC3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{9DC31584-0712-4F15-B5E2-BE3085636CC3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="146">
   <si>
     <t>id(PK)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -565,18 +565,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>prices_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Price_by_seat_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>movie_screening_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>reserve_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -584,14 +572,6 @@
     <t>영화관은 상영관정보를 관리한다</t>
   </si>
   <si>
-    <t>가격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>예약정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>reserve</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -618,22 +598,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>좌석별 가격정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Price_by_seat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>영화일정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>movie_screening</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2관</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -730,6 +694,34 @@
   </si>
   <si>
     <t>수량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>show_time_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상영일정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예매</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reserve_seat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reserve_seat_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예매 상세</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -932,9 +924,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -972,7 +964,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1078,7 +1070,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1220,7 +1212,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2587,16 +2579,16 @@
         <v>85</v>
       </c>
       <c r="L14" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="M14" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="N14" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="O14" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.3">
@@ -2726,16 +2718,16 @@
     </row>
     <row r="24" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D24" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="E24" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="F24" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="G24" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25" spans="3:11" x14ac:dyDescent="0.3">
@@ -2763,7 +2755,7 @@
   <dimension ref="C4:M40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2781,19 +2773,19 @@
   <sheetData>
     <row r="4" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C4" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>44</v>
@@ -2802,7 +2794,7 @@
         <v>48</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>104</v>
@@ -2813,28 +2805,28 @@
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="G5" s="20">
         <v>46082.583333333336</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>72</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="3:12" x14ac:dyDescent="0.3">
@@ -2842,25 +2834,25 @@
         <v>2</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="G6" s="20">
         <v>46082.666666666664</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>73</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="K6" s="19">
         <v>13000</v>
@@ -2873,19 +2865,19 @@
     </row>
     <row r="10" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C10" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="H10" s="16" t="s">
         <v>44</v>
@@ -2894,7 +2886,7 @@
         <v>48</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>104</v>
@@ -2905,25 +2897,25 @@
         <v>1</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="G11" s="20">
         <v>46082.583333333336</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="I11" s="16" t="s">
         <v>72</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="K11" s="19">
         <v>12000</v>
@@ -2934,25 +2926,25 @@
         <v>1</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="G12" s="20">
         <v>46082.583333333336</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="I12" s="16" t="s">
         <v>72</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="K12" s="19">
         <v>12000</v>
@@ -2963,25 +2955,25 @@
         <v>2</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="G13" s="20">
         <v>46082.666666666664</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="I13" s="16" t="s">
         <v>73</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="K13" s="19">
         <v>13000</v>
@@ -2992,21 +2984,21 @@
         <v>87</v>
       </c>
       <c r="F16" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="I16" s="18" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="L16" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="3:13" x14ac:dyDescent="0.3">
       <c r="F17" s="4" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="I17" s="16" t="s">
         <v>44</v>
@@ -3015,21 +3007,21 @@
         <v>48</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="3:13" x14ac:dyDescent="0.3">
       <c r="F18" s="4" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="I18" s="16" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="J18" s="16" t="s">
         <v>72</v>
@@ -3038,18 +3030,18 @@
         <v>1</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="3:13" x14ac:dyDescent="0.3">
       <c r="F19" s="4" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="I19" s="16" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="J19" s="16" t="s">
         <v>72</v>
@@ -3058,18 +3050,18 @@
         <v>2</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="3:13" x14ac:dyDescent="0.3">
       <c r="F20" s="4" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="I20" s="16" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="J20" s="16" t="s">
         <v>73</v>
@@ -3078,7 +3070,7 @@
         <v>3</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="3:13" x14ac:dyDescent="0.3">
@@ -3090,84 +3082,72 @@
     </row>
     <row r="24" spans="3:13" x14ac:dyDescent="0.3">
       <c r="E24" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="J24" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="K24" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
     </row>
     <row r="25" spans="3:13" x14ac:dyDescent="0.3">
       <c r="E25" s="2" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>115</v>
+        <v>144</v>
       </c>
       <c r="L25" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="M25" s="2" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="28" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C28" s="14" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C29" s="14" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F29" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G29" t="s">
-        <v>111</v>
-      </c>
-      <c r="L29" t="s">
-        <v>104</v>
-      </c>
-      <c r="M29" t="s">
-        <v>110</v>
+        <v>141</v>
       </c>
     </row>
     <row r="30" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C30" s="14" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G30" s="16" t="s">
         <v>44</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="L30" t="s">
-        <v>105</v>
-      </c>
-      <c r="M30" s="2" t="s">
-        <v>104</v>
+        <v>139</v>
       </c>
     </row>
     <row r="31" spans="3:13" x14ac:dyDescent="0.3">
